--- a/VT_IE_IND.xlsx
+++ b/VT_IE_IND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TIMES-models\TIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77727985-6A31-46EA-B629-E1122735A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FEE5F8-C089-4869-87D2-CF939389A1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -1217,12 +1217,6 @@
     <t>Hydrogen liquid (IND)</t>
   </si>
   <si>
-    <t>SUPH2GC, SUPH2GD</t>
-  </si>
-  <si>
-    <t>SUPH2LC, SUPH2LD</t>
-  </si>
-  <si>
     <t>TIMES-Ireland Model</t>
   </si>
   <si>
@@ -1368,6 +1362,12 @@
   </si>
   <si>
     <t>SHARE-I~UP~2021</t>
+  </si>
+  <si>
+    <t>H2GMD, H2GHD</t>
+  </si>
+  <si>
+    <t>H2LD</t>
   </si>
 </sst>
 </file>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
       <c r="A16" s="376" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B16" s="376"/>
       <c r="C16" s="376"/>
@@ -5935,10 +5935,10 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1">
       <c r="A19" s="66" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B19" s="375" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C19" s="375"/>
       <c r="D19" s="375"/>
@@ -5967,10 +5967,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1">
       <c r="A20" s="66" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B20" s="375" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C20" s="375"/>
       <c r="D20" s="375"/>
@@ -5999,10 +5999,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1">
       <c r="A21" s="66" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
@@ -6059,10 +6059,10 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1">
       <c r="A23" s="66" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B23" s="375" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C23" s="375"/>
       <c r="D23" s="375"/>
@@ -6147,10 +6147,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1">
       <c r="A26" s="66" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B26" s="375" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C26" s="375"/>
       <c r="D26" s="375"/>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1">
       <c r="A29" s="66" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B29" s="70">
         <v>1</v>
@@ -6267,10 +6267,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1">
       <c r="A30" s="66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B30" s="377" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C30" s="375"/>
       <c r="D30" s="375"/>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1">
       <c r="A31" s="66" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B31" s="375" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C31" s="375"/>
       <c r="D31" s="375"/>
@@ -6332,7 +6332,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1">
       <c r="A32" s="72"/>
       <c r="B32" s="73" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
@@ -8310,7 +8310,7 @@
   <sheetData>
     <row r="1" spans="1:44" ht="105.75" customHeight="1" thickBot="1">
       <c r="A1" s="74" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B1" s="75" t="s">
         <v>275</v>
@@ -9434,7 +9434,7 @@
     </row>
     <row r="10" spans="1:44" ht="12.75" customHeight="1">
       <c r="A10" s="151" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B10" s="152"/>
       <c r="C10" s="153">
@@ -9516,7 +9516,7 @@
     </row>
     <row r="11" spans="1:44" ht="12.75" customHeight="1">
       <c r="A11" s="100" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B11" s="101"/>
       <c r="C11" s="102">
@@ -9596,7 +9596,7 @@
     </row>
     <row r="12" spans="1:44" ht="12.75" customHeight="1">
       <c r="A12" s="100" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B12" s="101"/>
       <c r="C12" s="102"/>
@@ -9648,7 +9648,7 @@
     </row>
     <row r="13" spans="1:44" ht="12.75" customHeight="1">
       <c r="A13" s="100" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B13" s="101"/>
       <c r="C13" s="102">
@@ -9712,7 +9712,7 @@
     </row>
     <row r="14" spans="1:44" ht="12.75" customHeight="1">
       <c r="A14" s="164" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B14" s="165"/>
       <c r="C14" s="166">
@@ -9953,7 +9953,7 @@
     </row>
     <row r="16" spans="1:44" ht="12.75" customHeight="1">
       <c r="A16" s="151" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B16" s="152"/>
       <c r="C16" s="153">
@@ -10017,7 +10017,7 @@
     </row>
     <row r="17" spans="1:44" ht="12.75" customHeight="1">
       <c r="A17" s="100" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B17" s="101"/>
       <c r="C17" s="102">
@@ -10081,7 +10081,7 @@
     </row>
     <row r="18" spans="1:44" ht="12.75" customHeight="1">
       <c r="A18" s="100" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B18" s="101"/>
       <c r="C18" s="102"/>
@@ -10133,7 +10133,7 @@
     </row>
     <row r="19" spans="1:44" ht="12.75" customHeight="1">
       <c r="A19" s="100" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B19" s="101"/>
       <c r="C19" s="102"/>
@@ -10194,7 +10194,7 @@
     </row>
     <row r="20" spans="1:44" ht="12.75" customHeight="1">
       <c r="A20" s="164" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B20" s="165"/>
       <c r="C20" s="166"/>
@@ -10439,7 +10439,7 @@
     </row>
     <row r="22" spans="1:44" ht="12.75" customHeight="1">
       <c r="A22" s="151" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B22" s="152"/>
       <c r="C22" s="202"/>
@@ -10503,7 +10503,7 @@
     </row>
     <row r="23" spans="1:44" ht="12.75" customHeight="1">
       <c r="A23" s="206" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B23" s="177"/>
       <c r="C23" s="207"/>
@@ -10553,7 +10553,7 @@
     </row>
     <row r="24" spans="1:44" ht="12.75" customHeight="1" thickBot="1">
       <c r="A24" s="115" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B24" s="116"/>
       <c r="C24" s="216">
@@ -15179,7 +15179,7 @@
     </row>
     <row r="74" spans="1:44" ht="12.75" customHeight="1">
       <c r="A74" s="206" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B74" s="184"/>
       <c r="C74" s="184"/>
@@ -15226,7 +15226,7 @@
     </row>
     <row r="75" spans="1:44" ht="12.75" customHeight="1">
       <c r="A75" s="336" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
@@ -15273,7 +15273,7 @@
     </row>
     <row r="76" spans="1:44" ht="12.75" customHeight="1">
       <c r="A76" s="337" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B76" s="338"/>
       <c r="C76" s="48"/>
@@ -15320,7 +15320,7 @@
     </row>
     <row r="77" spans="1:44" ht="12.75" customHeight="1">
       <c r="A77" s="346" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B77" s="336"/>
       <c r="C77" s="48"/>
@@ -15367,7 +15367,7 @@
     </row>
     <row r="78" spans="1:44" ht="12.75" customHeight="1">
       <c r="A78" s="49" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B78" s="336"/>
       <c r="C78" s="48"/>
@@ -15568,7 +15568,7 @@
   <sheetData>
     <row r="1" spans="1:43" ht="105.75" customHeight="1" thickBot="1">
       <c r="A1" s="74" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B1" s="75" t="s">
         <v>275</v>
@@ -16689,7 +16689,7 @@
     </row>
     <row r="10" spans="1:43" ht="12.75" customHeight="1">
       <c r="A10" s="151" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B10" s="152"/>
       <c r="C10" s="153">
@@ -16771,7 +16771,7 @@
     </row>
     <row r="11" spans="1:43" ht="12.75" customHeight="1">
       <c r="A11" s="100" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B11" s="101"/>
       <c r="C11" s="102">
@@ -16851,7 +16851,7 @@
     </row>
     <row r="12" spans="1:43" ht="12.75" customHeight="1">
       <c r="A12" s="100" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B12" s="101"/>
       <c r="C12" s="102"/>
@@ -16903,7 +16903,7 @@
     </row>
     <row r="13" spans="1:43" ht="12.75" customHeight="1">
       <c r="A13" s="100" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B13" s="101"/>
       <c r="C13" s="102">
@@ -16967,7 +16967,7 @@
     </row>
     <row r="14" spans="1:43" ht="12.75" customHeight="1">
       <c r="A14" s="164" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B14" s="165"/>
       <c r="C14" s="166">
@@ -17207,7 +17207,7 @@
     </row>
     <row r="16" spans="1:43" ht="12.75" customHeight="1">
       <c r="A16" s="151" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B16" s="152"/>
       <c r="C16" s="153">
@@ -17271,7 +17271,7 @@
     </row>
     <row r="17" spans="1:43" ht="12.75" customHeight="1">
       <c r="A17" s="100" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B17" s="101"/>
       <c r="C17" s="102">
@@ -17335,7 +17335,7 @@
     </row>
     <row r="18" spans="1:43" ht="12.75" customHeight="1">
       <c r="A18" s="100" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B18" s="101"/>
       <c r="C18" s="102"/>
@@ -17387,7 +17387,7 @@
     </row>
     <row r="19" spans="1:43" ht="12.75" customHeight="1">
       <c r="A19" s="100" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B19" s="101"/>
       <c r="C19" s="102"/>
@@ -17448,7 +17448,7 @@
     </row>
     <row r="20" spans="1:43" ht="12.75" customHeight="1">
       <c r="A20" s="164" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B20" s="165"/>
       <c r="C20" s="166"/>
@@ -17693,7 +17693,7 @@
     </row>
     <row r="22" spans="1:43" ht="12.75" customHeight="1">
       <c r="A22" s="151" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B22" s="152"/>
       <c r="C22" s="202"/>
@@ -17757,7 +17757,7 @@
     </row>
     <row r="23" spans="1:43" ht="12.75" customHeight="1">
       <c r="A23" s="206" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B23" s="177"/>
       <c r="C23" s="207"/>
@@ -17807,7 +17807,7 @@
     </row>
     <row r="24" spans="1:43" ht="12.75" customHeight="1" thickBot="1">
       <c r="A24" s="115" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B24" s="116"/>
       <c r="C24" s="216">
@@ -22417,7 +22417,7 @@
     </row>
     <row r="74" spans="1:43" ht="12.75" customHeight="1">
       <c r="A74" s="206" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B74" s="184"/>
       <c r="C74" s="184"/>
@@ -22464,7 +22464,7 @@
     </row>
     <row r="75" spans="1:43" ht="12.75" customHeight="1">
       <c r="A75" s="336" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
@@ -22511,7 +22511,7 @@
     </row>
     <row r="76" spans="1:43" ht="12.75" customHeight="1">
       <c r="A76" s="337" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B76" s="338"/>
       <c r="C76" s="48"/>
@@ -22558,7 +22558,7 @@
     </row>
     <row r="77" spans="1:43" ht="15">
       <c r="A77" s="346" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B77" s="336"/>
       <c r="C77" s="48"/>
@@ -22605,7 +22605,7 @@
     </row>
     <row r="78" spans="1:43" ht="15">
       <c r="A78" s="49" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B78" s="336"/>
       <c r="C78" s="48"/>
@@ -22890,7 +22890,7 @@
   <sheetData>
     <row r="1" spans="1:43" ht="105.75" customHeight="1" thickBot="1">
       <c r="A1" s="74" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1" s="75" t="s">
         <v>275</v>
@@ -24011,7 +24011,7 @@
     </row>
     <row r="10" spans="1:43" ht="12.75" customHeight="1">
       <c r="A10" s="151" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B10" s="152"/>
       <c r="C10" s="153">
@@ -24093,7 +24093,7 @@
     </row>
     <row r="11" spans="1:43" ht="12.75" customHeight="1">
       <c r="A11" s="100" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B11" s="101"/>
       <c r="C11" s="102">
@@ -24173,7 +24173,7 @@
     </row>
     <row r="12" spans="1:43" ht="12.75" customHeight="1">
       <c r="A12" s="100" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B12" s="101"/>
       <c r="C12" s="102"/>
@@ -24225,7 +24225,7 @@
     </row>
     <row r="13" spans="1:43" ht="12.75" customHeight="1">
       <c r="A13" s="100" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B13" s="101"/>
       <c r="C13" s="102">
@@ -24289,7 +24289,7 @@
     </row>
     <row r="14" spans="1:43" ht="12.75" customHeight="1">
       <c r="A14" s="164" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B14" s="165"/>
       <c r="C14" s="166">
@@ -24529,7 +24529,7 @@
     </row>
     <row r="16" spans="1:43" ht="12.75" customHeight="1">
       <c r="A16" s="151" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B16" s="152"/>
       <c r="C16" s="153">
@@ -24593,7 +24593,7 @@
     </row>
     <row r="17" spans="1:43" ht="12.75" customHeight="1">
       <c r="A17" s="100" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B17" s="101"/>
       <c r="C17" s="102">
@@ -24657,7 +24657,7 @@
     </row>
     <row r="18" spans="1:43" ht="12.75" customHeight="1">
       <c r="A18" s="100" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B18" s="101"/>
       <c r="C18" s="102"/>
@@ -24709,7 +24709,7 @@
     </row>
     <row r="19" spans="1:43" ht="12.75" customHeight="1">
       <c r="A19" s="100" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B19" s="101"/>
       <c r="C19" s="102"/>
@@ -24770,7 +24770,7 @@
     </row>
     <row r="20" spans="1:43" ht="12.75" customHeight="1">
       <c r="A20" s="164" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B20" s="165"/>
       <c r="C20" s="166"/>
@@ -25015,7 +25015,7 @@
     </row>
     <row r="22" spans="1:43" ht="12.75" customHeight="1">
       <c r="A22" s="151" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B22" s="152"/>
       <c r="C22" s="202"/>
@@ -25079,7 +25079,7 @@
     </row>
     <row r="23" spans="1:43" ht="12.75" customHeight="1">
       <c r="A23" s="206" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B23" s="177"/>
       <c r="C23" s="207"/>
@@ -25129,7 +25129,7 @@
     </row>
     <row r="24" spans="1:43" ht="12.75" customHeight="1" thickBot="1">
       <c r="A24" s="115" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B24" s="116"/>
       <c r="C24" s="216">
@@ -29739,7 +29739,7 @@
     </row>
     <row r="74" spans="1:43" ht="12.75" customHeight="1">
       <c r="A74" s="206" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B74" s="184"/>
       <c r="C74" s="184"/>
@@ -29786,7 +29786,7 @@
     </row>
     <row r="75" spans="1:43" ht="12.75" customHeight="1">
       <c r="A75" s="336" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
@@ -29833,7 +29833,7 @@
     </row>
     <row r="76" spans="1:43" ht="12.75" customHeight="1">
       <c r="A76" s="337" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B76" s="338"/>
       <c r="C76" s="48"/>
@@ -29880,7 +29880,7 @@
     </row>
     <row r="77" spans="1:43" ht="15">
       <c r="A77" s="346" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B77" s="336"/>
       <c r="C77" s="48"/>
@@ -29927,7 +29927,7 @@
     </row>
     <row r="78" spans="1:43" ht="15">
       <c r="A78" s="49" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B78" s="336"/>
       <c r="C78" s="48"/>
@@ -32852,8 +32852,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33355,7 +33355,7 @@
         <v>Fuel Tech - Hydrogen gaseous (IND)</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="F21" s="38" t="str">
         <f>Commodities!D20</f>
@@ -33382,7 +33382,7 @@
         <v>Fuel Tech - Hydrogen liquid (IND)</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="F22" s="38" t="str">
         <f>Commodities!D21</f>
@@ -33407,7 +33407,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:AB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -33461,13 +33461,13 @@
         <v>272</v>
       </c>
       <c r="J3" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="L3" s="20" t="s">
         <v>372</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>374</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>273</v>
@@ -38341,7 +38341,7 @@
     </row>
     <row r="10" spans="1:45" ht="12.75" customHeight="1">
       <c r="A10" s="151" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B10" s="152"/>
       <c r="C10" s="153">
@@ -38423,7 +38423,7 @@
     </row>
     <row r="11" spans="1:45" ht="12.75" customHeight="1">
       <c r="A11" s="100" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B11" s="101"/>
       <c r="C11" s="102">
@@ -38503,7 +38503,7 @@
     </row>
     <row r="12" spans="1:45" ht="12.75" customHeight="1">
       <c r="A12" s="100" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B12" s="101"/>
       <c r="C12" s="102"/>
@@ -38555,7 +38555,7 @@
     </row>
     <row r="13" spans="1:45" ht="12.75" customHeight="1">
       <c r="A13" s="100" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B13" s="101"/>
       <c r="C13" s="102">
@@ -38619,7 +38619,7 @@
     </row>
     <row r="14" spans="1:45" ht="12.75" customHeight="1">
       <c r="A14" s="164" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B14" s="165"/>
       <c r="C14" s="166">
@@ -38861,7 +38861,7 @@
     </row>
     <row r="16" spans="1:45" ht="12.75" customHeight="1">
       <c r="A16" s="151" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B16" s="152"/>
       <c r="C16" s="153">
@@ -38925,7 +38925,7 @@
     </row>
     <row r="17" spans="1:45" ht="12.75" customHeight="1">
       <c r="A17" s="100" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B17" s="101"/>
       <c r="C17" s="102">
@@ -38989,7 +38989,7 @@
     </row>
     <row r="18" spans="1:45" ht="12.75" customHeight="1">
       <c r="A18" s="100" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B18" s="101"/>
       <c r="C18" s="102"/>
@@ -39041,7 +39041,7 @@
     </row>
     <row r="19" spans="1:45" ht="12.75" customHeight="1">
       <c r="A19" s="100" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B19" s="101"/>
       <c r="C19" s="102"/>
@@ -39102,7 +39102,7 @@
     </row>
     <row r="20" spans="1:45" ht="12.75" customHeight="1">
       <c r="A20" s="164" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B20" s="165"/>
       <c r="C20" s="166"/>
@@ -39347,7 +39347,7 @@
     </row>
     <row r="22" spans="1:45" ht="12.75" customHeight="1">
       <c r="A22" s="151" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B22" s="152"/>
       <c r="C22" s="202"/>
@@ -39411,7 +39411,7 @@
     </row>
     <row r="23" spans="1:45" ht="12.75" customHeight="1">
       <c r="A23" s="206" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B23" s="177"/>
       <c r="C23" s="207"/>
@@ -39461,7 +39461,7 @@
     </row>
     <row r="24" spans="1:45" ht="12.75" customHeight="1" thickBot="1">
       <c r="A24" s="115" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B24" s="116"/>
       <c r="C24" s="216">
@@ -44104,7 +44104,7 @@
     </row>
     <row r="74" spans="1:45" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="206" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B74" s="184"/>
       <c r="C74" s="184"/>
@@ -44149,7 +44149,7 @@
     </row>
     <row r="75" spans="1:45" ht="12.75" customHeight="1">
       <c r="A75" s="336" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>

--- a/VT_IE_IND.xlsx
+++ b/VT_IE_IND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TIMES-models\TIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FEE5F8-C089-4869-87D2-CF939389A1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFBBF97-9E05-401C-828A-9673069CCDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="375">
   <si>
     <t>Development</t>
   </si>
@@ -30931,8 +30931,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31348,7 +31348,9 @@
         <v>166</v>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="H20" s="23" t="s">
+        <v>234</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
     </row>
@@ -31370,7 +31372,9 @@
         <v>166</v>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="H21" s="23" t="s">
+        <v>234</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
     </row>
@@ -32852,7 +32856,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
